--- a/biology/Biochimie/Polynucléotide/Polynucléotide.xlsx
+++ b/biology/Biochimie/Polynucléotide/Polynucléotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polynucl%C3%A9otide</t>
+          <t>Polynucléotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un polynucléotide est un polymère constitué d'au moins treize[1] monomères de nucléotides liés par covalence en formant une chaîne. Les acides nucléiques tels que l'acide ribonucléique (ARN) et l'acide désoxyribonucléique (ADN) sont des polynucléotides.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un polynucléotide est un polymère constitué d'au moins treize monomères de nucléotides liés par covalence en formant une chaîne. Les acides nucléiques tels que l'acide ribonucléique (ARN) et l'acide désoxyribonucléique (ADN) sont des polynucléotides.
 Si les polynucléotides biologiques ont avant tout un rôle génétique (ADN) et dans la biosynthèse des protéines (ARN), certains, appelés ribozymes, sont également doués d'activité catalytique à l'instar des enzymes.
 </t>
         </is>
